--- a/a3_par_all.xlsx
+++ b/a3_par_all.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19480" tabRatio="500"/>
+    <workbookView xWindow="13900" yWindow="5140" windowWidth="33600" windowHeight="19320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Main Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -93,6 +93,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -177,7 +180,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -221,8 +224,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -242,8 +257,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -265,6 +283,12 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -286,6 +310,12 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -558,11 +588,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1245599248"/>
-        <c:axId val="829479008"/>
+        <c:axId val="617286048"/>
+        <c:axId val="617288368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1245599248"/>
+        <c:axId val="617286048"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -605,7 +635,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="829479008"/>
+        <c:crossAx val="617288368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -613,7 +643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="829479008"/>
+        <c:axId val="617288368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1245599248"/>
+        <c:crossAx val="617286048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -961,11 +991,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="148"/>
-        <c:axId val="1284856992"/>
-        <c:axId val="1285098352"/>
+        <c:axId val="660229776"/>
+        <c:axId val="660232528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1284856992"/>
+        <c:axId val="660229776"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1008,7 +1038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1285098352"/>
+        <c:crossAx val="660232528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +1046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1285098352"/>
+        <c:axId val="660232528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.1"/>
@@ -1067,7 +1097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1284856992"/>
+        <c:crossAx val="660229776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.02"/>
@@ -1247,7 +1277,7 @@
             <c:numRef>
               <c:f>'Main Data'!$H$25:$J$25</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.18581694274656</c:v>
@@ -1308,7 +1338,7 @@
             <c:numRef>
               <c:f>'Main Data'!$H$26:$J$26</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.95934912316571</c:v>
@@ -1369,7 +1399,7 @@
             <c:numRef>
               <c:f>'Main Data'!$H$27:$J$27</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2.206598642558322</c:v>
@@ -1407,11 +1437,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
-        <c:axId val="1284347040"/>
-        <c:axId val="1286271568"/>
+        <c:axId val="617314656"/>
+        <c:axId val="617317408"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="1284347040"/>
+        <c:axId val="617314656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1286271568"/>
+        <c:crossAx val="617317408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1462,7 +1492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1286271568"/>
+        <c:axId val="617317408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1284347040"/>
+        <c:crossAx val="617314656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8345,7 +8375,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I3:K7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -8691,7 +8721,7 @@
   <dimension ref="A1:N601"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8738,7 +8768,7 @@
         <v>0.27</v>
       </c>
       <c r="F2">
-        <f>LOG(ABS(C2-D2)+1/8,2)</f>
+        <f t="shared" ref="F2:F33" si="0">LOG(ABS(C2-D2)+1/8,2)</f>
         <v>4.7615512324444795</v>
       </c>
       <c r="H2" s="6"/>
@@ -8760,7 +8790,7 @@
         <v>0.15</v>
       </c>
       <c r="F3">
-        <f>LOG(ABS(C3-D3)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>3.9188632372745946</v>
       </c>
       <c r="H3" s="6"/>
@@ -8797,7 +8827,7 @@
         <v>0.12</v>
       </c>
       <c r="F4">
-        <f>LOG(ABS(C4-D4)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>3.5999128421871283</v>
       </c>
       <c r="H4" s="6"/>
@@ -8834,7 +8864,7 @@
         <v>0.1</v>
       </c>
       <c r="F5">
-        <f>LOG(ABS(C5-D5)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>3.3398500028846252</v>
       </c>
       <c r="H5" s="6"/>
@@ -8871,7 +8901,7 @@
         <v>0.09</v>
       </c>
       <c r="F6">
-        <f>LOG(ABS(C6-D6)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>3.1898245588800171</v>
       </c>
       <c r="H6" s="6"/>
@@ -8908,7 +8938,7 @@
         <v>0.09</v>
       </c>
       <c r="F7">
-        <f>LOG(ABS(C7-D7)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>3.1898245588800171</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -8938,7 +8968,7 @@
         <v>0.09</v>
       </c>
       <c r="F8">
-        <f>LOG(ABS(C8-D8)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -8959,7 +8989,7 @@
         <v>0.09</v>
       </c>
       <c r="F9">
-        <f>LOG(ABS(C9-D9)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -8980,7 +9010,7 @@
         <v>0.09</v>
       </c>
       <c r="F10">
-        <f>LOG(ABS(C10-D10)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>3.1898245588800171</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -9014,7 +9044,7 @@
         <v>0.09</v>
       </c>
       <c r="F11">
-        <f>LOG(ABS(C11-D11)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>3.1898245588800171</v>
       </c>
       <c r="H11" s="10">
@@ -9051,7 +9081,7 @@
         <v>0.09</v>
       </c>
       <c r="F12">
-        <f>LOG(ABS(C12-D12)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>3.1898245588800171</v>
       </c>
       <c r="H12" s="9"/>
@@ -9077,7 +9107,7 @@
         <v>0.09</v>
       </c>
       <c r="F13">
-        <f>LOG(ABS(C13-D13)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>3.1898245588800171</v>
       </c>
       <c r="H13" s="9" t="s">
@@ -9105,7 +9135,7 @@
         <v>0.08</v>
       </c>
       <c r="F14">
-        <f>LOG(ABS(C14-D14)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>3.0223678130284544</v>
       </c>
       <c r="H14" s="10">
@@ -9142,7 +9172,7 @@
         <v>0.08</v>
       </c>
       <c r="F15">
-        <f>LOG(ABS(C15-D15)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>3.0223678130284544</v>
       </c>
       <c r="H15" s="9"/>
@@ -9168,7 +9198,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F16">
-        <f>LOG(ABS(C16-D16)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.8328900141647417</v>
       </c>
       <c r="H16" s="9" t="s">
@@ -9196,7 +9226,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F17">
-        <f>LOG(ABS(C17-D17)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.8328900141647417</v>
       </c>
       <c r="H17" s="10">
@@ -9233,7 +9263,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F18">
-        <f>LOG(ABS(C18-D18)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.8328900141647417</v>
       </c>
       <c r="H18" s="9"/>
@@ -9259,7 +9289,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F19">
-        <f>LOG(ABS(C19-D19)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -9280,7 +9310,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F20">
-        <f>LOG(ABS(C20-D20)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -9301,7 +9331,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F21">
-        <f>LOG(ABS(C21-D21)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -9322,7 +9352,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F22">
-        <f>LOG(ABS(C22-D22)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -9343,7 +9373,7 @@
         <v>0.06</v>
       </c>
       <c r="F23">
-        <f>LOG(ABS(C23-D23)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -9364,7 +9394,7 @@
         <v>0.06</v>
       </c>
       <c r="F24">
-        <f>LOG(ABS(C24-D24)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.6147098441152083</v>
       </c>
       <c r="H24" s="9" t="s">
@@ -9394,19 +9424,19 @@
         <v>0.06</v>
       </c>
       <c r="F25">
-        <f>LOG(ABS(C25-D25)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.6147098441152083</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="11">
         <v>1.1858169427465599</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="11">
         <v>1.33</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="11">
         <v>1.4741830572534402</v>
       </c>
     </row>
@@ -9427,19 +9457,19 @@
         <v>0.06</v>
       </c>
       <c r="F26">
-        <f>LOG(ABS(C26-D26)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.6147098441152083</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="11">
         <v>1.9593491231657096</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="11">
         <v>2.15</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="11">
         <v>2.3406508768342902</v>
       </c>
     </row>
@@ -9460,19 +9490,19 @@
         <v>0.06</v>
       </c>
       <c r="F27">
-        <f>LOG(ABS(C27-D27)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.6147098441152083</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="11">
         <v>2.2065986425583222</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="11">
         <v>2.39</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="11">
         <v>2.5734013574416781</v>
       </c>
     </row>
@@ -9493,7 +9523,7 @@
         <v>0.06</v>
       </c>
       <c r="F28">
-        <f>LOG(ABS(C28-D28)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -9514,7 +9544,7 @@
         <v>0.06</v>
       </c>
       <c r="F29">
-        <f>LOG(ABS(C29-D29)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.6147098441152083</v>
       </c>
       <c r="H29" s="10"/>
@@ -9538,7 +9568,7 @@
         <v>0.05</v>
       </c>
       <c r="F30">
-        <f>LOG(ABS(C30-D30)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.3575520046180838</v>
       </c>
       <c r="H30" s="10"/>
@@ -9562,7 +9592,7 @@
         <v>0.05</v>
       </c>
       <c r="F31">
-        <f>LOG(ABS(C31-D31)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -9583,7 +9613,7 @@
         <v>0.05</v>
       </c>
       <c r="F32">
-        <f>LOG(ABS(C32-D32)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -9604,7 +9634,7 @@
         <v>0.05</v>
       </c>
       <c r="F33">
-        <f>LOG(ABS(C33-D33)+1/8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -9625,7 +9655,7 @@
         <v>0.05</v>
       </c>
       <c r="F34">
-        <f>LOG(ABS(C34-D34)+1/8,2)</f>
+        <f t="shared" ref="F34:F65" si="1">LOG(ABS(C34-D34)+1/8,2)</f>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -9646,7 +9676,7 @@
         <v>0.05</v>
       </c>
       <c r="F35">
-        <f>LOG(ABS(C35-D35)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -9667,7 +9697,7 @@
         <v>0.05</v>
       </c>
       <c r="F36">
-        <f>LOG(ABS(C36-D36)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -9688,7 +9718,7 @@
         <v>0.05</v>
       </c>
       <c r="F37">
-        <f>LOG(ABS(C37-D37)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -9709,7 +9739,7 @@
         <v>0.05</v>
       </c>
       <c r="F38">
-        <f>LOG(ABS(C38-D38)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -9730,7 +9760,7 @@
         <v>0.05</v>
       </c>
       <c r="F39">
-        <f>LOG(ABS(C39-D39)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -9751,7 +9781,7 @@
         <v>0.05</v>
       </c>
       <c r="F40">
-        <f>LOG(ABS(C40-D40)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -9772,7 +9802,7 @@
         <v>0.05</v>
       </c>
       <c r="F41">
-        <f>LOG(ABS(C41-D41)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -9793,7 +9823,7 @@
         <v>0.05</v>
       </c>
       <c r="F42">
-        <f>LOG(ABS(C42-D42)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -9814,7 +9844,7 @@
         <v>0.05</v>
       </c>
       <c r="F43">
-        <f>LOG(ABS(C43-D43)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -9835,7 +9865,7 @@
         <v>0.05</v>
       </c>
       <c r="F44">
-        <f>LOG(ABS(C44-D44)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -9856,7 +9886,7 @@
         <v>0.04</v>
       </c>
       <c r="F45">
-        <f>LOG(ABS(C45-D45)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -9877,7 +9907,7 @@
         <v>0.04</v>
       </c>
       <c r="F46">
-        <f>LOG(ABS(C46-D46)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -9898,7 +9928,7 @@
         <v>0.04</v>
       </c>
       <c r="F47">
-        <f>LOG(ABS(C47-D47)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -9919,7 +9949,7 @@
         <v>0.04</v>
       </c>
       <c r="F48">
-        <f>LOG(ABS(C48-D48)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -9940,7 +9970,7 @@
         <v>0.04</v>
       </c>
       <c r="F49">
-        <f>LOG(ABS(C49-D49)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -9961,7 +9991,7 @@
         <v>0.04</v>
       </c>
       <c r="F50">
-        <f>LOG(ABS(C50-D50)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -9982,7 +10012,7 @@
         <v>0.04</v>
       </c>
       <c r="F51">
-        <f>LOG(ABS(C51-D51)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -10003,7 +10033,7 @@
         <v>0.04</v>
       </c>
       <c r="F52">
-        <f>LOG(ABS(C52-D52)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -10024,7 +10054,7 @@
         <v>0.04</v>
       </c>
       <c r="F53">
-        <f>LOG(ABS(C53-D53)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -10045,7 +10075,7 @@
         <v>0.04</v>
       </c>
       <c r="F54">
-        <f>LOG(ABS(C54-D54)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -10066,7 +10096,7 @@
         <v>0.04</v>
       </c>
       <c r="F55">
-        <f>LOG(ABS(C55-D55)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -10087,7 +10117,7 @@
         <v>0.04</v>
       </c>
       <c r="F56">
-        <f>LOG(ABS(C56-D56)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -10108,7 +10138,7 @@
         <v>0.04</v>
       </c>
       <c r="F57">
-        <f>LOG(ABS(C57-D57)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -10129,7 +10159,7 @@
         <v>0.04</v>
       </c>
       <c r="F58">
-        <f>LOG(ABS(C58-D58)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -10150,7 +10180,7 @@
         <v>0.04</v>
       </c>
       <c r="F59">
-        <f>LOG(ABS(C59-D59)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -10171,7 +10201,7 @@
         <v>0.04</v>
       </c>
       <c r="F60">
-        <f>LOG(ABS(C60-D60)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -10192,7 +10222,7 @@
         <v>0.04</v>
       </c>
       <c r="F61">
-        <f>LOG(ABS(C61-D61)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -10213,7 +10243,7 @@
         <v>0.04</v>
       </c>
       <c r="F62">
-        <f>LOG(ABS(C62-D62)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -10234,7 +10264,7 @@
         <v>0.04</v>
       </c>
       <c r="F63">
-        <f>LOG(ABS(C63-D63)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -10255,7 +10285,7 @@
         <v>0.03</v>
       </c>
       <c r="F64">
-        <f>LOG(ABS(C64-D64)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10276,7 +10306,7 @@
         <v>0.03</v>
       </c>
       <c r="F65">
-        <f>LOG(ABS(C65-D65)+1/8,2)</f>
+        <f t="shared" si="1"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10297,7 +10327,7 @@
         <v>0.03</v>
       </c>
       <c r="F66">
-        <f>LOG(ABS(C66-D66)+1/8,2)</f>
+        <f t="shared" ref="F66:F97" si="2">LOG(ABS(C66-D66)+1/8,2)</f>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10318,7 +10348,7 @@
         <v>0.03</v>
       </c>
       <c r="F67">
-        <f>LOG(ABS(C67-D67)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10339,7 +10369,7 @@
         <v>0.03</v>
       </c>
       <c r="F68">
-        <f>LOG(ABS(C68-D68)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10360,7 +10390,7 @@
         <v>0.03</v>
       </c>
       <c r="F69">
-        <f>LOG(ABS(C69-D69)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10381,7 +10411,7 @@
         <v>0.03</v>
       </c>
       <c r="F70">
-        <f>LOG(ABS(C70-D70)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10402,7 +10432,7 @@
         <v>0.03</v>
       </c>
       <c r="F71">
-        <f>LOG(ABS(C71-D71)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10423,7 +10453,7 @@
         <v>0.03</v>
       </c>
       <c r="F72">
-        <f>LOG(ABS(C72-D72)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10444,7 +10474,7 @@
         <v>0.03</v>
       </c>
       <c r="F73">
-        <f>LOG(ABS(C73-D73)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10465,7 +10495,7 @@
         <v>0.03</v>
       </c>
       <c r="F74">
-        <f>LOG(ABS(C74-D74)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10486,7 +10516,7 @@
         <v>0.03</v>
       </c>
       <c r="F75">
-        <f>LOG(ABS(C75-D75)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10507,7 +10537,7 @@
         <v>0.03</v>
       </c>
       <c r="F76">
-        <f>LOG(ABS(C76-D76)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10528,7 +10558,7 @@
         <v>0.03</v>
       </c>
       <c r="F77">
-        <f>LOG(ABS(C77-D77)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10549,7 +10579,7 @@
         <v>0.03</v>
       </c>
       <c r="F78">
-        <f>LOG(ABS(C78-D78)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10570,7 +10600,7 @@
         <v>0.03</v>
       </c>
       <c r="F79">
-        <f>LOG(ABS(C79-D79)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10591,7 +10621,7 @@
         <v>0.03</v>
       </c>
       <c r="F80">
-        <f>LOG(ABS(C80-D80)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10612,7 +10642,7 @@
         <v>0.03</v>
       </c>
       <c r="F81">
-        <f>LOG(ABS(C81-D81)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10633,7 +10663,7 @@
         <v>0.03</v>
       </c>
       <c r="F82">
-        <f>LOG(ABS(C82-D82)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10654,7 +10684,7 @@
         <v>0.03</v>
       </c>
       <c r="F83">
-        <f>LOG(ABS(C83-D83)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10675,7 +10705,7 @@
         <v>0.03</v>
       </c>
       <c r="F84">
-        <f>LOG(ABS(C84-D84)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10696,7 +10726,7 @@
         <v>0.03</v>
       </c>
       <c r="F85">
-        <f>LOG(ABS(C85-D85)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10717,7 +10747,7 @@
         <v>0.03</v>
       </c>
       <c r="F86">
-        <f>LOG(ABS(C86-D86)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10738,7 +10768,7 @@
         <v>0.03</v>
       </c>
       <c r="F87">
-        <f>LOG(ABS(C87-D87)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10759,7 +10789,7 @@
         <v>0.03</v>
       </c>
       <c r="F88">
-        <f>LOG(ABS(C88-D88)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10780,7 +10810,7 @@
         <v>0.03</v>
       </c>
       <c r="F89">
-        <f>LOG(ABS(C89-D89)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10801,7 +10831,7 @@
         <v>0.03</v>
       </c>
       <c r="F90">
-        <f>LOG(ABS(C90-D90)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10822,7 +10852,7 @@
         <v>0.03</v>
       </c>
       <c r="F91">
-        <f>LOG(ABS(C91-D91)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -10843,7 +10873,7 @@
         <v>0.02</v>
       </c>
       <c r="F92">
-        <f>LOG(ABS(C92-D92)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -10864,7 +10894,7 @@
         <v>0.02</v>
       </c>
       <c r="F93">
-        <f>LOG(ABS(C93-D93)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -10885,7 +10915,7 @@
         <v>0.02</v>
       </c>
       <c r="F94">
-        <f>LOG(ABS(C94-D94)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -10906,7 +10936,7 @@
         <v>0.02</v>
       </c>
       <c r="F95">
-        <f>LOG(ABS(C95-D95)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -10927,7 +10957,7 @@
         <v>0.02</v>
       </c>
       <c r="F96">
-        <f>LOG(ABS(C96-D96)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -10948,7 +10978,7 @@
         <v>0.02</v>
       </c>
       <c r="F97">
-        <f>LOG(ABS(C97-D97)+1/8,2)</f>
+        <f t="shared" si="2"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -10969,7 +10999,7 @@
         <v>0.02</v>
       </c>
       <c r="F98">
-        <f>LOG(ABS(C98-D98)+1/8,2)</f>
+        <f t="shared" ref="F98:F129" si="3">LOG(ABS(C98-D98)+1/8,2)</f>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -10990,7 +11020,7 @@
         <v>0.02</v>
       </c>
       <c r="F99">
-        <f>LOG(ABS(C99-D99)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11011,7 +11041,7 @@
         <v>0.02</v>
       </c>
       <c r="F100">
-        <f>LOG(ABS(C100-D100)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11032,7 +11062,7 @@
         <v>0.02</v>
       </c>
       <c r="F101">
-        <f>LOG(ABS(C101-D101)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11053,7 +11083,7 @@
         <v>0.02</v>
       </c>
       <c r="F102">
-        <f>LOG(ABS(C102-D102)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11074,7 +11104,7 @@
         <v>0.02</v>
       </c>
       <c r="F103">
-        <f>LOG(ABS(C103-D103)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11095,7 +11125,7 @@
         <v>0.02</v>
       </c>
       <c r="F104">
-        <f>LOG(ABS(C104-D104)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11116,7 +11146,7 @@
         <v>0.02</v>
       </c>
       <c r="F105">
-        <f>LOG(ABS(C105-D105)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11137,7 +11167,7 @@
         <v>0.02</v>
       </c>
       <c r="F106">
-        <f>LOG(ABS(C106-D106)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11158,7 +11188,7 @@
         <v>0.02</v>
       </c>
       <c r="F107">
-        <f>LOG(ABS(C107-D107)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11179,7 +11209,7 @@
         <v>0.02</v>
       </c>
       <c r="F108">
-        <f>LOG(ABS(C108-D108)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11200,7 +11230,7 @@
         <v>0.02</v>
       </c>
       <c r="F109">
-        <f>LOG(ABS(C109-D109)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11221,7 +11251,7 @@
         <v>0.02</v>
       </c>
       <c r="F110">
-        <f>LOG(ABS(C110-D110)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11242,7 +11272,7 @@
         <v>0.02</v>
       </c>
       <c r="F111">
-        <f>LOG(ABS(C111-D111)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11263,7 +11293,7 @@
         <v>0.02</v>
       </c>
       <c r="F112">
-        <f>LOG(ABS(C112-D112)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11284,7 +11314,7 @@
         <v>0.02</v>
       </c>
       <c r="F113">
-        <f>LOG(ABS(C113-D113)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11305,7 +11335,7 @@
         <v>0.02</v>
       </c>
       <c r="F114">
-        <f>LOG(ABS(C114-D114)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11326,7 +11356,7 @@
         <v>0.02</v>
       </c>
       <c r="F115">
-        <f>LOG(ABS(C115-D115)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11347,7 +11377,7 @@
         <v>0.02</v>
       </c>
       <c r="F116">
-        <f>LOG(ABS(C116-D116)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11368,7 +11398,7 @@
         <v>0.02</v>
       </c>
       <c r="F117">
-        <f>LOG(ABS(C117-D117)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11389,7 +11419,7 @@
         <v>0.02</v>
       </c>
       <c r="F118">
-        <f>LOG(ABS(C118-D118)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11410,7 +11440,7 @@
         <v>0.02</v>
       </c>
       <c r="F119">
-        <f>LOG(ABS(C119-D119)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11431,7 +11461,7 @@
         <v>0.02</v>
       </c>
       <c r="F120">
-        <f>LOG(ABS(C120-D120)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11452,7 +11482,7 @@
         <v>0.02</v>
       </c>
       <c r="F121">
-        <f>LOG(ABS(C121-D121)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11473,7 +11503,7 @@
         <v>0.02</v>
       </c>
       <c r="F122">
-        <f>LOG(ABS(C122-D122)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11494,7 +11524,7 @@
         <v>0.02</v>
       </c>
       <c r="F123">
-        <f>LOG(ABS(C123-D123)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11515,7 +11545,7 @@
         <v>0.02</v>
       </c>
       <c r="F124">
-        <f>LOG(ABS(C124-D124)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11536,7 +11566,7 @@
         <v>0.02</v>
       </c>
       <c r="F125">
-        <f>LOG(ABS(C125-D125)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11557,7 +11587,7 @@
         <v>0.02</v>
       </c>
       <c r="F126">
-        <f>LOG(ABS(C126-D126)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11578,7 +11608,7 @@
         <v>0.02</v>
       </c>
       <c r="F127">
-        <f>LOG(ABS(C127-D127)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11599,7 +11629,7 @@
         <v>0.02</v>
       </c>
       <c r="F128">
-        <f>LOG(ABS(C128-D128)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11620,7 +11650,7 @@
         <v>0.02</v>
       </c>
       <c r="F129">
-        <f>LOG(ABS(C129-D129)+1/8,2)</f>
+        <f t="shared" si="3"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11641,7 +11671,7 @@
         <v>0.02</v>
       </c>
       <c r="F130">
-        <f>LOG(ABS(C130-D130)+1/8,2)</f>
+        <f t="shared" ref="F130:F161" si="4">LOG(ABS(C130-D130)+1/8,2)</f>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11662,7 +11692,7 @@
         <v>0.02</v>
       </c>
       <c r="F131">
-        <f>LOG(ABS(C131-D131)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11683,7 +11713,7 @@
         <v>0.02</v>
       </c>
       <c r="F132">
-        <f>LOG(ABS(C132-D132)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11704,7 +11734,7 @@
         <v>0.02</v>
       </c>
       <c r="F133">
-        <f>LOG(ABS(C133-D133)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11725,7 +11755,7 @@
         <v>0.02</v>
       </c>
       <c r="F134">
-        <f>LOG(ABS(C134-D134)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11746,7 +11776,7 @@
         <v>0.02</v>
       </c>
       <c r="F135">
-        <f>LOG(ABS(C135-D135)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -11767,7 +11797,7 @@
         <v>0.01</v>
       </c>
       <c r="F136">
-        <f>LOG(ABS(C136-D136)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -11788,7 +11818,7 @@
         <v>0.01</v>
       </c>
       <c r="F137">
-        <f>LOG(ABS(C137-D137)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -11809,7 +11839,7 @@
         <v>0.01</v>
       </c>
       <c r="F138">
-        <f>LOG(ABS(C138-D138)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -11830,7 +11860,7 @@
         <v>0.01</v>
       </c>
       <c r="F139">
-        <f>LOG(ABS(C139-D139)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -11851,7 +11881,7 @@
         <v>0.01</v>
       </c>
       <c r="F140">
-        <f>LOG(ABS(C140-D140)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -11872,7 +11902,7 @@
         <v>0.01</v>
       </c>
       <c r="F141">
-        <f>LOG(ABS(C141-D141)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -11893,7 +11923,7 @@
         <v>0.01</v>
       </c>
       <c r="F142">
-        <f>LOG(ABS(C142-D142)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -11914,7 +11944,7 @@
         <v>0.01</v>
       </c>
       <c r="F143">
-        <f>LOG(ABS(C143-D143)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -11935,7 +11965,7 @@
         <v>0.01</v>
       </c>
       <c r="F144">
-        <f>LOG(ABS(C144-D144)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -11956,7 +11986,7 @@
         <v>0.01</v>
       </c>
       <c r="F145">
-        <f>LOG(ABS(C145-D145)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -11977,7 +12007,7 @@
         <v>0.01</v>
       </c>
       <c r="F146">
-        <f>LOG(ABS(C146-D146)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -11998,7 +12028,7 @@
         <v>0.01</v>
       </c>
       <c r="F147">
-        <f>LOG(ABS(C147-D147)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12019,7 +12049,7 @@
         <v>0.01</v>
       </c>
       <c r="F148">
-        <f>LOG(ABS(C148-D148)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12040,7 +12070,7 @@
         <v>0.01</v>
       </c>
       <c r="F149">
-        <f>LOG(ABS(C149-D149)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12061,7 +12091,7 @@
         <v>0.01</v>
       </c>
       <c r="F150">
-        <f>LOG(ABS(C150-D150)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12082,7 +12112,7 @@
         <v>0.01</v>
       </c>
       <c r="F151">
-        <f>LOG(ABS(C151-D151)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12103,7 +12133,7 @@
         <v>0.01</v>
       </c>
       <c r="F152">
-        <f>LOG(ABS(C152-D152)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12124,7 +12154,7 @@
         <v>0.01</v>
       </c>
       <c r="F153">
-        <f>LOG(ABS(C153-D153)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12145,7 +12175,7 @@
         <v>0.01</v>
       </c>
       <c r="F154">
-        <f>LOG(ABS(C154-D154)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12166,7 +12196,7 @@
         <v>0.01</v>
       </c>
       <c r="F155">
-        <f>LOG(ABS(C155-D155)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12187,7 +12217,7 @@
         <v>0.01</v>
       </c>
       <c r="F156">
-        <f>LOG(ABS(C156-D156)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12208,7 +12238,7 @@
         <v>0.01</v>
       </c>
       <c r="F157">
-        <f>LOG(ABS(C157-D157)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12229,7 +12259,7 @@
         <v>0.01</v>
       </c>
       <c r="F158">
-        <f>LOG(ABS(C158-D158)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12250,7 +12280,7 @@
         <v>0.01</v>
       </c>
       <c r="F159">
-        <f>LOG(ABS(C159-D159)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12271,7 +12301,7 @@
         <v>0.01</v>
       </c>
       <c r="F160">
-        <f>LOG(ABS(C160-D160)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12292,7 +12322,7 @@
         <v>0.01</v>
       </c>
       <c r="F161">
-        <f>LOG(ABS(C161-D161)+1/8,2)</f>
+        <f t="shared" si="4"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12313,7 +12343,7 @@
         <v>0.01</v>
       </c>
       <c r="F162">
-        <f>LOG(ABS(C162-D162)+1/8,2)</f>
+        <f t="shared" ref="F162:F184" si="5">LOG(ABS(C162-D162)+1/8,2)</f>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12334,7 +12364,7 @@
         <v>0.01</v>
       </c>
       <c r="F163">
-        <f>LOG(ABS(C163-D163)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12355,7 +12385,7 @@
         <v>0.01</v>
       </c>
       <c r="F164">
-        <f>LOG(ABS(C164-D164)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12376,7 +12406,7 @@
         <v>0.01</v>
       </c>
       <c r="F165">
-        <f>LOG(ABS(C165-D165)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12397,7 +12427,7 @@
         <v>0.01</v>
       </c>
       <c r="F166">
-        <f>LOG(ABS(C166-D166)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12418,7 +12448,7 @@
         <v>0.01</v>
       </c>
       <c r="F167">
-        <f>LOG(ABS(C167-D167)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12439,7 +12469,7 @@
         <v>0.01</v>
       </c>
       <c r="F168">
-        <f>LOG(ABS(C168-D168)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12460,7 +12490,7 @@
         <v>0.01</v>
       </c>
       <c r="F169">
-        <f>LOG(ABS(C169-D169)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12481,7 +12511,7 @@
         <v>0.01</v>
       </c>
       <c r="F170">
-        <f>LOG(ABS(C170-D170)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12502,7 +12532,7 @@
         <v>0.01</v>
       </c>
       <c r="F171">
-        <f>LOG(ABS(C171-D171)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12523,7 +12553,7 @@
         <v>0.01</v>
       </c>
       <c r="F172">
-        <f>LOG(ABS(C172-D172)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12544,7 +12574,7 @@
         <v>0.01</v>
       </c>
       <c r="F173">
-        <f>LOG(ABS(C173-D173)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12565,7 +12595,7 @@
         <v>0.01</v>
       </c>
       <c r="F174">
-        <f>LOG(ABS(C174-D174)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12586,7 +12616,7 @@
         <v>0.01</v>
       </c>
       <c r="F175">
-        <f>LOG(ABS(C175-D175)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12607,7 +12637,7 @@
         <v>0.01</v>
       </c>
       <c r="F176">
-        <f>LOG(ABS(C176-D176)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12628,7 +12658,7 @@
         <v>0.01</v>
       </c>
       <c r="F177">
-        <f>LOG(ABS(C177-D177)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12649,7 +12679,7 @@
         <v>0.01</v>
       </c>
       <c r="F178">
-        <f>LOG(ABS(C178-D178)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12670,7 +12700,7 @@
         <v>0.01</v>
       </c>
       <c r="F179">
-        <f>LOG(ABS(C179-D179)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12691,7 +12721,7 @@
         <v>0.01</v>
       </c>
       <c r="F180">
-        <f>LOG(ABS(C180-D180)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12712,7 +12742,7 @@
         <v>0.01</v>
       </c>
       <c r="F181">
-        <f>LOG(ABS(C181-D181)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12733,7 +12763,7 @@
         <v>0.01</v>
       </c>
       <c r="F182">
-        <f>LOG(ABS(C182-D182)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12754,7 +12784,7 @@
         <v>0.01</v>
       </c>
       <c r="F183">
-        <f>LOG(ABS(C183-D183)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -12775,7 +12805,7 @@
         <v>0.01</v>
       </c>
       <c r="F184">
-        <f>LOG(ABS(C184-D184)+1/8,2)</f>
+        <f t="shared" si="5"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -13076,7 +13106,7 @@
         <v>0.48</v>
       </c>
       <c r="F199">
-        <f>LOG(ABS(C199-D199)+1/8,2)</f>
+        <f t="shared" ref="F199:F230" si="6">LOG(ABS(C199-D199)+1/8,2)</f>
         <v>5.5887146355822637</v>
       </c>
     </row>
@@ -13097,7 +13127,7 @@
         <v>0.23</v>
       </c>
       <c r="F200">
-        <f>LOG(ABS(C200-D200)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>4.5313814605163127</v>
       </c>
     </row>
@@ -13118,7 +13148,7 @@
         <v>0.22</v>
       </c>
       <c r="F201">
-        <f>LOG(ABS(C201-D201)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>4.4676055500829976</v>
       </c>
     </row>
@@ -13139,7 +13169,7 @@
         <v>0.21</v>
       </c>
       <c r="F202">
-        <f>LOG(ABS(C202-D202)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>4.4008794362821844</v>
       </c>
     </row>
@@ -13160,7 +13190,7 @@
         <v>0.2</v>
       </c>
       <c r="F203">
-        <f>LOG(ABS(C203-D203)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>4.3309168781146168</v>
       </c>
     </row>
@@ -13181,7 +13211,7 @@
         <v>0.2</v>
       </c>
       <c r="F204">
-        <f>LOG(ABS(C204-D204)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>4.3309168781146168</v>
       </c>
     </row>
@@ -13202,7 +13232,7 @@
         <v>0.2</v>
       </c>
       <c r="F205">
-        <f>LOG(ABS(C205-D205)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>4.3309168781146168</v>
       </c>
     </row>
@@ -13223,7 +13253,7 @@
         <v>0.2</v>
       </c>
       <c r="F206">
-        <f>LOG(ABS(C206-D206)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>4.3309168781146168</v>
       </c>
     </row>
@@ -13244,7 +13274,7 @@
         <v>0.19</v>
       </c>
       <c r="F207">
-        <f>LOG(ABS(C207-D207)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>4.2573878426926521</v>
       </c>
     </row>
@@ -13265,7 +13295,7 @@
         <v>0.19</v>
       </c>
       <c r="F208">
-        <f>LOG(ABS(C208-D208)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>4.2573878426926521</v>
       </c>
     </row>
@@ -13286,7 +13316,7 @@
         <v>0.18</v>
       </c>
       <c r="F209">
-        <f>LOG(ABS(C209-D209)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>4.1799090900149345</v>
       </c>
     </row>
@@ -13307,7 +13337,7 @@
         <v>0.18</v>
       </c>
       <c r="F210">
-        <f>LOG(ABS(C210-D210)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>4.1799090900149345</v>
       </c>
     </row>
@@ -13328,7 +13358,7 @@
         <v>0.17</v>
       </c>
       <c r="F211">
-        <f>LOG(ABS(C211-D211)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>4.0980320829605263</v>
       </c>
     </row>
@@ -13349,7 +13379,7 @@
         <v>0.17</v>
       </c>
       <c r="F212">
-        <f>LOG(ABS(C212-D212)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>4.0980320829605263</v>
       </c>
     </row>
@@ -13370,7 +13400,7 @@
         <v>0.17</v>
       </c>
       <c r="F213">
-        <f>LOG(ABS(C213-D213)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>4.0980320829605263</v>
       </c>
     </row>
@@ -13391,7 +13421,7 @@
         <v>0.16</v>
       </c>
       <c r="F214">
-        <f>LOG(ABS(C214-D214)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>4.011227255423254</v>
       </c>
     </row>
@@ -13412,7 +13442,7 @@
         <v>0.15</v>
       </c>
       <c r="F215">
-        <f>LOG(ABS(C215-D215)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.9188632372745946</v>
       </c>
     </row>
@@ -13433,7 +13463,7 @@
         <v>0.15</v>
       </c>
       <c r="F216">
-        <f>LOG(ABS(C216-D216)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.9188632372745946</v>
       </c>
     </row>
@@ -13454,7 +13484,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F217">
-        <f>LOG(ABS(C217-D217)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.8201789624151878</v>
       </c>
     </row>
@@ -13475,7 +13505,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F218">
-        <f>LOG(ABS(C218-D218)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.8201789624151878</v>
       </c>
     </row>
@@ -13496,7 +13526,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F219">
-        <f>LOG(ABS(C219-D219)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.8201789624151878</v>
       </c>
     </row>
@@ -13517,7 +13547,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F220">
-        <f>LOG(ABS(C220-D220)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.8201789624151878</v>
       </c>
     </row>
@@ -13538,7 +13568,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F221">
-        <f>LOG(ABS(C221-D221)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.8201789624151878</v>
       </c>
     </row>
@@ -13559,7 +13589,7 @@
         <v>0.13</v>
       </c>
       <c r="F222">
-        <f>LOG(ABS(C222-D222)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.7142455176661224</v>
       </c>
     </row>
@@ -13580,7 +13610,7 @@
         <v>0.13</v>
       </c>
       <c r="F223">
-        <f>LOG(ABS(C223-D223)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.7142455176661224</v>
       </c>
     </row>
@@ -13601,7 +13631,7 @@
         <v>0.13</v>
       </c>
       <c r="F224">
-        <f>LOG(ABS(C224-D224)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.7142455176661224</v>
       </c>
     </row>
@@ -13622,7 +13652,7 @@
         <v>0.13</v>
       </c>
       <c r="F225">
-        <f>LOG(ABS(C225-D225)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.7142455176661224</v>
       </c>
     </row>
@@ -13643,7 +13673,7 @@
         <v>0.13</v>
       </c>
       <c r="F226">
-        <f>LOG(ABS(C226-D226)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.7142455176661224</v>
       </c>
     </row>
@@ -13664,7 +13694,7 @@
         <v>0.12</v>
       </c>
       <c r="F227">
-        <f>LOG(ABS(C227-D227)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.5999128421871283</v>
       </c>
     </row>
@@ -13685,7 +13715,7 @@
         <v>0.12</v>
       </c>
       <c r="F228">
-        <f>LOG(ABS(C228-D228)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.5999128421871283</v>
       </c>
     </row>
@@ -13706,7 +13736,7 @@
         <v>0.12</v>
       </c>
       <c r="F229">
-        <f>LOG(ABS(C229-D229)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.5999128421871283</v>
       </c>
     </row>
@@ -13727,7 +13757,7 @@
         <v>0.12</v>
       </c>
       <c r="F230">
-        <f>LOG(ABS(C230-D230)+1/8,2)</f>
+        <f t="shared" si="6"/>
         <v>3.5999128421871283</v>
       </c>
     </row>
@@ -13748,7 +13778,7 @@
         <v>0.12</v>
       </c>
       <c r="F231">
-        <f>LOG(ABS(C231-D231)+1/8,2)</f>
+        <f t="shared" ref="F231:F262" si="7">LOG(ABS(C231-D231)+1/8,2)</f>
         <v>3.5999128421871283</v>
       </c>
     </row>
@@ -13769,7 +13799,7 @@
         <v>0.11</v>
       </c>
       <c r="F232">
-        <f>LOG(ABS(C232-D232)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.4757334309663976</v>
       </c>
     </row>
@@ -13790,7 +13820,7 @@
         <v>0.11</v>
       </c>
       <c r="F233">
-        <f>LOG(ABS(C233-D233)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.4757334309663976</v>
       </c>
     </row>
@@ -13811,7 +13841,7 @@
         <v>0.11</v>
       </c>
       <c r="F234">
-        <f>LOG(ABS(C234-D234)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.4757334309663976</v>
       </c>
     </row>
@@ -13832,7 +13862,7 @@
         <v>0.11</v>
       </c>
       <c r="F235">
-        <f>LOG(ABS(C235-D235)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.4757334309663976</v>
       </c>
     </row>
@@ -13853,7 +13883,7 @@
         <v>0.11</v>
       </c>
       <c r="F236">
-        <f>LOG(ABS(C236-D236)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.4757334309663976</v>
       </c>
     </row>
@@ -13874,7 +13904,7 @@
         <v>0.11</v>
       </c>
       <c r="F237">
-        <f>LOG(ABS(C237-D237)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.4757334309663976</v>
       </c>
     </row>
@@ -13895,7 +13925,7 @@
         <v>0.1</v>
       </c>
       <c r="F238">
-        <f>LOG(ABS(C238-D238)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -13916,7 +13946,7 @@
         <v>0.1</v>
       </c>
       <c r="F239">
-        <f>LOG(ABS(C239-D239)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -13937,7 +13967,7 @@
         <v>0.1</v>
       </c>
       <c r="F240">
-        <f>LOG(ABS(C240-D240)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -13958,7 +13988,7 @@
         <v>0.1</v>
       </c>
       <c r="F241">
-        <f>LOG(ABS(C241-D241)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -13979,7 +14009,7 @@
         <v>0.1</v>
       </c>
       <c r="F242">
-        <f>LOG(ABS(C242-D242)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -14000,7 +14030,7 @@
         <v>0.1</v>
       </c>
       <c r="F243">
-        <f>LOG(ABS(C243-D243)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -14021,7 +14051,7 @@
         <v>0.1</v>
       </c>
       <c r="F244">
-        <f>LOG(ABS(C244-D244)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -14042,7 +14072,7 @@
         <v>0.1</v>
       </c>
       <c r="F245">
-        <f>LOG(ABS(C245-D245)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -14063,7 +14093,7 @@
         <v>0.1</v>
       </c>
       <c r="F246">
-        <f>LOG(ABS(C246-D246)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -14084,7 +14114,7 @@
         <v>0.09</v>
       </c>
       <c r="F247">
-        <f>LOG(ABS(C247-D247)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -14105,7 +14135,7 @@
         <v>0.09</v>
       </c>
       <c r="F248">
-        <f>LOG(ABS(C248-D248)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -14126,7 +14156,7 @@
         <v>0.09</v>
       </c>
       <c r="F249">
-        <f>LOG(ABS(C249-D249)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -14147,7 +14177,7 @@
         <v>0.09</v>
       </c>
       <c r="F250">
-        <f>LOG(ABS(C250-D250)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -14168,7 +14198,7 @@
         <v>0.09</v>
       </c>
       <c r="F251">
-        <f>LOG(ABS(C251-D251)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -14189,7 +14219,7 @@
         <v>0.09</v>
       </c>
       <c r="F252">
-        <f>LOG(ABS(C252-D252)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -14210,7 +14240,7 @@
         <v>0.09</v>
       </c>
       <c r="F253">
-        <f>LOG(ABS(C253-D253)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -14231,7 +14261,7 @@
         <v>0.09</v>
       </c>
       <c r="F254">
-        <f>LOG(ABS(C254-D254)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -14252,7 +14282,7 @@
         <v>0.09</v>
       </c>
       <c r="F255">
-        <f>LOG(ABS(C255-D255)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -14273,7 +14303,7 @@
         <v>0.09</v>
       </c>
       <c r="F256">
-        <f>LOG(ABS(C256-D256)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -14294,7 +14324,7 @@
         <v>0.09</v>
       </c>
       <c r="F257">
-        <f>LOG(ABS(C257-D257)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -14315,7 +14345,7 @@
         <v>0.08</v>
       </c>
       <c r="F258">
-        <f>LOG(ABS(C258-D258)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -14336,7 +14366,7 @@
         <v>0.08</v>
       </c>
       <c r="F259">
-        <f>LOG(ABS(C259-D259)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -14357,7 +14387,7 @@
         <v>0.08</v>
       </c>
       <c r="F260">
-        <f>LOG(ABS(C260-D260)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -14378,7 +14408,7 @@
         <v>0.08</v>
       </c>
       <c r="F261">
-        <f>LOG(ABS(C261-D261)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -14399,7 +14429,7 @@
         <v>0.08</v>
       </c>
       <c r="F262">
-        <f>LOG(ABS(C262-D262)+1/8,2)</f>
+        <f t="shared" si="7"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -14420,7 +14450,7 @@
         <v>0.08</v>
       </c>
       <c r="F263">
-        <f>LOG(ABS(C263-D263)+1/8,2)</f>
+        <f t="shared" ref="F263:F294" si="8">LOG(ABS(C263-D263)+1/8,2)</f>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -14441,7 +14471,7 @@
         <v>0.08</v>
       </c>
       <c r="F264">
-        <f>LOG(ABS(C264-D264)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -14462,7 +14492,7 @@
         <v>0.08</v>
       </c>
       <c r="F265">
-        <f>LOG(ABS(C265-D265)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -14483,7 +14513,7 @@
         <v>0.08</v>
       </c>
       <c r="F266">
-        <f>LOG(ABS(C266-D266)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -14504,7 +14534,7 @@
         <v>0.08</v>
       </c>
       <c r="F267">
-        <f>LOG(ABS(C267-D267)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -14525,7 +14555,7 @@
         <v>0.08</v>
       </c>
       <c r="F268">
-        <f>LOG(ABS(C268-D268)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -14546,7 +14576,7 @@
         <v>0.08</v>
       </c>
       <c r="F269">
-        <f>LOG(ABS(C269-D269)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -14567,7 +14597,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F270">
-        <f>LOG(ABS(C270-D270)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -14588,7 +14618,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F271">
-        <f>LOG(ABS(C271-D271)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -14609,7 +14639,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F272">
-        <f>LOG(ABS(C272-D272)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -14630,7 +14660,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F273">
-        <f>LOG(ABS(C273-D273)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -14651,7 +14681,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F274">
-        <f>LOG(ABS(C274-D274)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -14672,7 +14702,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F275">
-        <f>LOG(ABS(C275-D275)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -14693,7 +14723,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F276">
-        <f>LOG(ABS(C276-D276)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -14714,7 +14744,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F277">
-        <f>LOG(ABS(C277-D277)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -14735,7 +14765,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F278">
-        <f>LOG(ABS(C278-D278)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -14756,7 +14786,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F279">
-        <f>LOG(ABS(C279-D279)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -14777,7 +14807,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F280">
-        <f>LOG(ABS(C280-D280)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -14798,7 +14828,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F281">
-        <f>LOG(ABS(C281-D281)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -14819,7 +14849,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F282">
-        <f>LOG(ABS(C282-D282)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -14840,7 +14870,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F283">
-        <f>LOG(ABS(C283-D283)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -14861,7 +14891,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F284">
-        <f>LOG(ABS(C284-D284)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -14882,7 +14912,7 @@
         <v>0.06</v>
       </c>
       <c r="F285">
-        <f>LOG(ABS(C285-D285)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -14903,7 +14933,7 @@
         <v>0.06</v>
       </c>
       <c r="F286">
-        <f>LOG(ABS(C286-D286)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -14924,7 +14954,7 @@
         <v>0.06</v>
       </c>
       <c r="F287">
-        <f>LOG(ABS(C287-D287)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -14945,7 +14975,7 @@
         <v>0.06</v>
       </c>
       <c r="F288">
-        <f>LOG(ABS(C288-D288)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -14966,7 +14996,7 @@
         <v>0.06</v>
       </c>
       <c r="F289">
-        <f>LOG(ABS(C289-D289)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -14987,7 +15017,7 @@
         <v>0.06</v>
       </c>
       <c r="F290">
-        <f>LOG(ABS(C290-D290)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -15008,7 +15038,7 @@
         <v>0.05</v>
       </c>
       <c r="F291">
-        <f>LOG(ABS(C291-D291)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -15029,7 +15059,7 @@
         <v>0.05</v>
       </c>
       <c r="F292">
-        <f>LOG(ABS(C292-D292)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -15050,7 +15080,7 @@
         <v>0.05</v>
       </c>
       <c r="F293">
-        <f>LOG(ABS(C293-D293)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -15071,7 +15101,7 @@
         <v>0.05</v>
       </c>
       <c r="F294">
-        <f>LOG(ABS(C294-D294)+1/8,2)</f>
+        <f t="shared" si="8"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -15092,7 +15122,7 @@
         <v>0.05</v>
       </c>
       <c r="F295">
-        <f>LOG(ABS(C295-D295)+1/8,2)</f>
+        <f t="shared" ref="F295:F326" si="9">LOG(ABS(C295-D295)+1/8,2)</f>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -15113,7 +15143,7 @@
         <v>0.05</v>
       </c>
       <c r="F296">
-        <f>LOG(ABS(C296-D296)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -15134,7 +15164,7 @@
         <v>0.05</v>
       </c>
       <c r="F297">
-        <f>LOG(ABS(C297-D297)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -15155,7 +15185,7 @@
         <v>0.05</v>
       </c>
       <c r="F298">
-        <f>LOG(ABS(C298-D298)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -15176,7 +15206,7 @@
         <v>0.05</v>
       </c>
       <c r="F299">
-        <f>LOG(ABS(C299-D299)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -15197,7 +15227,7 @@
         <v>0.05</v>
       </c>
       <c r="F300">
-        <f>LOG(ABS(C300-D300)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -15218,7 +15248,7 @@
         <v>0.05</v>
       </c>
       <c r="F301">
-        <f>LOG(ABS(C301-D301)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -15239,7 +15269,7 @@
         <v>0.05</v>
       </c>
       <c r="F302">
-        <f>LOG(ABS(C302-D302)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -15260,7 +15290,7 @@
         <v>0.05</v>
       </c>
       <c r="F303">
-        <f>LOG(ABS(C303-D303)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -15281,7 +15311,7 @@
         <v>0.05</v>
       </c>
       <c r="F304">
-        <f>LOG(ABS(C304-D304)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -15302,7 +15332,7 @@
         <v>0.04</v>
       </c>
       <c r="F305">
-        <f>LOG(ABS(C305-D305)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -15323,7 +15353,7 @@
         <v>0.04</v>
       </c>
       <c r="F306">
-        <f>LOG(ABS(C306-D306)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -15344,7 +15374,7 @@
         <v>0.04</v>
       </c>
       <c r="F307">
-        <f>LOG(ABS(C307-D307)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -15365,7 +15395,7 @@
         <v>0.04</v>
       </c>
       <c r="F308">
-        <f>LOG(ABS(C308-D308)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -15386,7 +15416,7 @@
         <v>0.04</v>
       </c>
       <c r="F309">
-        <f>LOG(ABS(C309-D309)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -15407,7 +15437,7 @@
         <v>0.04</v>
       </c>
       <c r="F310">
-        <f>LOG(ABS(C310-D310)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -15428,7 +15458,7 @@
         <v>0.04</v>
       </c>
       <c r="F311">
-        <f>LOG(ABS(C311-D311)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -15449,7 +15479,7 @@
         <v>0.04</v>
       </c>
       <c r="F312">
-        <f>LOG(ABS(C312-D312)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -15470,7 +15500,7 @@
         <v>0.04</v>
       </c>
       <c r="F313">
-        <f>LOG(ABS(C313-D313)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -15491,7 +15521,7 @@
         <v>0.04</v>
       </c>
       <c r="F314">
-        <f>LOG(ABS(C314-D314)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -15512,7 +15542,7 @@
         <v>0.04</v>
       </c>
       <c r="F315">
-        <f>LOG(ABS(C315-D315)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -15533,7 +15563,7 @@
         <v>0.04</v>
       </c>
       <c r="F316">
-        <f>LOG(ABS(C316-D316)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -15554,7 +15584,7 @@
         <v>0.03</v>
       </c>
       <c r="F317">
-        <f>LOG(ABS(C317-D317)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15575,7 +15605,7 @@
         <v>0.03</v>
       </c>
       <c r="F318">
-        <f>LOG(ABS(C318-D318)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15596,7 +15626,7 @@
         <v>0.03</v>
       </c>
       <c r="F319">
-        <f>LOG(ABS(C319-D319)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15617,7 +15647,7 @@
         <v>0.03</v>
       </c>
       <c r="F320">
-        <f>LOG(ABS(C320-D320)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15638,7 +15668,7 @@
         <v>0.03</v>
       </c>
       <c r="F321">
-        <f>LOG(ABS(C321-D321)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15659,7 +15689,7 @@
         <v>0.03</v>
       </c>
       <c r="F322">
-        <f>LOG(ABS(C322-D322)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15680,7 +15710,7 @@
         <v>0.03</v>
       </c>
       <c r="F323">
-        <f>LOG(ABS(C323-D323)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15701,7 +15731,7 @@
         <v>0.03</v>
       </c>
       <c r="F324">
-        <f>LOG(ABS(C324-D324)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15722,7 +15752,7 @@
         <v>0.03</v>
       </c>
       <c r="F325">
-        <f>LOG(ABS(C325-D325)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15743,7 +15773,7 @@
         <v>0.03</v>
       </c>
       <c r="F326">
-        <f>LOG(ABS(C326-D326)+1/8,2)</f>
+        <f t="shared" si="9"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15764,7 +15794,7 @@
         <v>0.03</v>
       </c>
       <c r="F327">
-        <f>LOG(ABS(C327-D327)+1/8,2)</f>
+        <f t="shared" ref="F327:F358" si="10">LOG(ABS(C327-D327)+1/8,2)</f>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15785,7 +15815,7 @@
         <v>0.03</v>
       </c>
       <c r="F328">
-        <f>LOG(ABS(C328-D328)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15806,7 +15836,7 @@
         <v>0.03</v>
       </c>
       <c r="F329">
-        <f>LOG(ABS(C329-D329)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15827,7 +15857,7 @@
         <v>0.03</v>
       </c>
       <c r="F330">
-        <f>LOG(ABS(C330-D330)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15848,7 +15878,7 @@
         <v>0.03</v>
       </c>
       <c r="F331">
-        <f>LOG(ABS(C331-D331)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15869,7 +15899,7 @@
         <v>0.03</v>
       </c>
       <c r="F332">
-        <f>LOG(ABS(C332-D332)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15890,7 +15920,7 @@
         <v>0.03</v>
       </c>
       <c r="F333">
-        <f>LOG(ABS(C333-D333)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15911,7 +15941,7 @@
         <v>0.03</v>
       </c>
       <c r="F334">
-        <f>LOG(ABS(C334-D334)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15932,7 +15962,7 @@
         <v>0.03</v>
       </c>
       <c r="F335">
-        <f>LOG(ABS(C335-D335)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15953,7 +15983,7 @@
         <v>0.03</v>
       </c>
       <c r="F336">
-        <f>LOG(ABS(C336-D336)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15974,7 +16004,7 @@
         <v>0.03</v>
       </c>
       <c r="F337">
-        <f>LOG(ABS(C337-D337)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -15995,7 +16025,7 @@
         <v>0.03</v>
       </c>
       <c r="F338">
-        <f>LOG(ABS(C338-D338)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -16016,7 +16046,7 @@
         <v>0.02</v>
       </c>
       <c r="F339">
-        <f>LOG(ABS(C339-D339)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16037,7 +16067,7 @@
         <v>0.02</v>
       </c>
       <c r="F340">
-        <f>LOG(ABS(C340-D340)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16058,7 +16088,7 @@
         <v>0.02</v>
       </c>
       <c r="F341">
-        <f>LOG(ABS(C341-D341)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16079,7 +16109,7 @@
         <v>0.02</v>
       </c>
       <c r="F342">
-        <f>LOG(ABS(C342-D342)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16100,7 +16130,7 @@
         <v>0.02</v>
       </c>
       <c r="F343">
-        <f>LOG(ABS(C343-D343)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16121,7 +16151,7 @@
         <v>0.02</v>
       </c>
       <c r="F344">
-        <f>LOG(ABS(C344-D344)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16142,7 +16172,7 @@
         <v>0.02</v>
       </c>
       <c r="F345">
-        <f>LOG(ABS(C345-D345)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16163,7 +16193,7 @@
         <v>0.02</v>
       </c>
       <c r="F346">
-        <f>LOG(ABS(C346-D346)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16184,7 +16214,7 @@
         <v>0.02</v>
       </c>
       <c r="F347">
-        <f>LOG(ABS(C347-D347)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16205,7 +16235,7 @@
         <v>0.02</v>
       </c>
       <c r="F348">
-        <f>LOG(ABS(C348-D348)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16226,7 +16256,7 @@
         <v>0.02</v>
       </c>
       <c r="F349">
-        <f>LOG(ABS(C349-D349)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16247,7 +16277,7 @@
         <v>0.02</v>
       </c>
       <c r="F350">
-        <f>LOG(ABS(C350-D350)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16268,7 +16298,7 @@
         <v>0.02</v>
       </c>
       <c r="F351">
-        <f>LOG(ABS(C351-D351)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16289,7 +16319,7 @@
         <v>0.02</v>
       </c>
       <c r="F352">
-        <f>LOG(ABS(C352-D352)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16310,7 +16340,7 @@
         <v>0.02</v>
       </c>
       <c r="F353">
-        <f>LOG(ABS(C353-D353)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16331,7 +16361,7 @@
         <v>0.02</v>
       </c>
       <c r="F354">
-        <f>LOG(ABS(C354-D354)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16352,7 +16382,7 @@
         <v>0.02</v>
       </c>
       <c r="F355">
-        <f>LOG(ABS(C355-D355)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16373,7 +16403,7 @@
         <v>0.02</v>
       </c>
       <c r="F356">
-        <f>LOG(ABS(C356-D356)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -16394,7 +16424,7 @@
         <v>0.01</v>
       </c>
       <c r="F357">
-        <f>LOG(ABS(C357-D357)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16415,7 +16445,7 @@
         <v>0.01</v>
       </c>
       <c r="F358">
-        <f>LOG(ABS(C358-D358)+1/8,2)</f>
+        <f t="shared" si="10"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16436,7 +16466,7 @@
         <v>0.01</v>
       </c>
       <c r="F359">
-        <f>LOG(ABS(C359-D359)+1/8,2)</f>
+        <f t="shared" ref="F359:F380" si="11">LOG(ABS(C359-D359)+1/8,2)</f>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16457,7 +16487,7 @@
         <v>0.01</v>
       </c>
       <c r="F360">
-        <f>LOG(ABS(C360-D360)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16478,7 +16508,7 @@
         <v>0.01</v>
       </c>
       <c r="F361">
-        <f>LOG(ABS(C361-D361)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16499,7 +16529,7 @@
         <v>0.01</v>
       </c>
       <c r="F362">
-        <f>LOG(ABS(C362-D362)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16520,7 +16550,7 @@
         <v>0.01</v>
       </c>
       <c r="F363">
-        <f>LOG(ABS(C363-D363)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16541,7 +16571,7 @@
         <v>0.01</v>
       </c>
       <c r="F364">
-        <f>LOG(ABS(C364-D364)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16562,7 +16592,7 @@
         <v>0.01</v>
       </c>
       <c r="F365">
-        <f>LOG(ABS(C365-D365)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16583,7 +16613,7 @@
         <v>0.01</v>
       </c>
       <c r="F366">
-        <f>LOG(ABS(C366-D366)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16604,7 +16634,7 @@
         <v>0.01</v>
       </c>
       <c r="F367">
-        <f>LOG(ABS(C367-D367)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16625,7 +16655,7 @@
         <v>0.01</v>
       </c>
       <c r="F368">
-        <f>LOG(ABS(C368-D368)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16646,7 +16676,7 @@
         <v>0.01</v>
       </c>
       <c r="F369">
-        <f>LOG(ABS(C369-D369)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16667,7 +16697,7 @@
         <v>0.01</v>
       </c>
       <c r="F370">
-        <f>LOG(ABS(C370-D370)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16688,7 +16718,7 @@
         <v>0.01</v>
       </c>
       <c r="F371">
-        <f>LOG(ABS(C371-D371)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16709,7 +16739,7 @@
         <v>0.01</v>
       </c>
       <c r="F372">
-        <f>LOG(ABS(C372-D372)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16730,7 +16760,7 @@
         <v>0.01</v>
       </c>
       <c r="F373">
-        <f>LOG(ABS(C373-D373)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16751,7 +16781,7 @@
         <v>0.01</v>
       </c>
       <c r="F374">
-        <f>LOG(ABS(C374-D374)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16772,7 +16802,7 @@
         <v>0.01</v>
       </c>
       <c r="F375">
-        <f>LOG(ABS(C375-D375)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16793,7 +16823,7 @@
         <v>0.01</v>
       </c>
       <c r="F376">
-        <f>LOG(ABS(C376-D376)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16814,7 +16844,7 @@
         <v>0.01</v>
       </c>
       <c r="F377">
-        <f>LOG(ABS(C377-D377)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16835,7 +16865,7 @@
         <v>0.01</v>
       </c>
       <c r="F378">
-        <f>LOG(ABS(C378-D378)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16856,7 +16886,7 @@
         <v>0.01</v>
       </c>
       <c r="F379">
-        <f>LOG(ABS(C379-D379)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -16877,7 +16907,7 @@
         <v>0.01</v>
       </c>
       <c r="F380">
-        <f>LOG(ABS(C380-D380)+1/8,2)</f>
+        <f t="shared" si="11"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -17258,7 +17288,7 @@
         <v>0.45</v>
       </c>
       <c r="F399">
-        <f>LOG(ABS(C399-D399)+1/8,2)</f>
+        <f t="shared" ref="F399:F430" si="12">LOG(ABS(C399-D399)+1/8,2)</f>
         <v>5.4958550268871704</v>
       </c>
     </row>
@@ -17279,7 +17309,7 @@
         <v>0.32</v>
       </c>
       <c r="F400">
-        <f>LOG(ABS(C400-D400)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>5.005624549193878</v>
       </c>
     </row>
@@ -17300,7 +17330,7 @@
         <v>0.3</v>
       </c>
       <c r="F401">
-        <f>LOG(ABS(C401-D401)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.9128893362299619</v>
       </c>
     </row>
@@ -17321,7 +17351,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F402">
-        <f>LOG(ABS(C402-D402)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.8137811912170374</v>
       </c>
     </row>
@@ -17342,7 +17372,7 @@
         <v>0.27</v>
       </c>
       <c r="F403">
-        <f>LOG(ABS(C403-D403)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.7615512324444795</v>
       </c>
     </row>
@@ -17363,7 +17393,7 @@
         <v>0.25</v>
       </c>
       <c r="F404">
-        <f>LOG(ABS(C404-D404)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.651051691178929</v>
       </c>
     </row>
@@ -17384,7 +17414,7 @@
         <v>0.23</v>
       </c>
       <c r="F405">
-        <f>LOG(ABS(C405-D405)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.5313814605163127</v>
       </c>
     </row>
@@ -17405,7 +17435,7 @@
         <v>0.23</v>
       </c>
       <c r="F406">
-        <f>LOG(ABS(C406-D406)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.5313814605163127</v>
       </c>
     </row>
@@ -17426,7 +17456,7 @@
         <v>0.22</v>
       </c>
       <c r="F407">
-        <f>LOG(ABS(C407-D407)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.4676055500829976</v>
       </c>
     </row>
@@ -17447,7 +17477,7 @@
         <v>0.22</v>
       </c>
       <c r="F408">
-        <f>LOG(ABS(C408-D408)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.4676055500829976</v>
       </c>
     </row>
@@ -17468,7 +17498,7 @@
         <v>0.21</v>
       </c>
       <c r="F409">
-        <f>LOG(ABS(C409-D409)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.4008794362821844</v>
       </c>
     </row>
@@ -17489,7 +17519,7 @@
         <v>0.21</v>
       </c>
       <c r="F410">
-        <f>LOG(ABS(C410-D410)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.4008794362821844</v>
       </c>
     </row>
@@ -17510,7 +17540,7 @@
         <v>0.21</v>
       </c>
       <c r="F411">
-        <f>LOG(ABS(C411-D411)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.4008794362821844</v>
       </c>
     </row>
@@ -17531,7 +17561,7 @@
         <v>0.21</v>
       </c>
       <c r="F412">
-        <f>LOG(ABS(C412-D412)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.4008794362821844</v>
       </c>
     </row>
@@ -17552,7 +17582,7 @@
         <v>0.2</v>
       </c>
       <c r="F413">
-        <f>LOG(ABS(C413-D413)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.3309168781146168</v>
       </c>
     </row>
@@ -17573,7 +17603,7 @@
         <v>0.19</v>
       </c>
       <c r="F414">
-        <f>LOG(ABS(C414-D414)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.2573878426926521</v>
       </c>
     </row>
@@ -17594,7 +17624,7 @@
         <v>0.19</v>
       </c>
       <c r="F415">
-        <f>LOG(ABS(C415-D415)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.2573878426926521</v>
       </c>
     </row>
@@ -17615,7 +17645,7 @@
         <v>0.19</v>
       </c>
       <c r="F416">
-        <f>LOG(ABS(C416-D416)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.2573878426926521</v>
       </c>
     </row>
@@ -17636,7 +17666,7 @@
         <v>0.19</v>
       </c>
       <c r="F417">
-        <f>LOG(ABS(C417-D417)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.2573878426926521</v>
       </c>
     </row>
@@ -17657,7 +17687,7 @@
         <v>0.18</v>
       </c>
       <c r="F418">
-        <f>LOG(ABS(C418-D418)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.1799090900149345</v>
       </c>
     </row>
@@ -17678,7 +17708,7 @@
         <v>0.18</v>
       </c>
       <c r="F419">
-        <f>LOG(ABS(C419-D419)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.1799090900149345</v>
       </c>
     </row>
@@ -17699,7 +17729,7 @@
         <v>0.18</v>
       </c>
       <c r="F420">
-        <f>LOG(ABS(C420-D420)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.1799090900149345</v>
       </c>
     </row>
@@ -17720,7 +17750,7 @@
         <v>0.16</v>
       </c>
       <c r="F421">
-        <f>LOG(ABS(C421-D421)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.011227255423254</v>
       </c>
     </row>
@@ -17741,7 +17771,7 @@
         <v>0.16</v>
       </c>
       <c r="F422">
-        <f>LOG(ABS(C422-D422)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.011227255423254</v>
       </c>
     </row>
@@ -17762,7 +17792,7 @@
         <v>0.16</v>
       </c>
       <c r="F423">
-        <f>LOG(ABS(C423-D423)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>4.011227255423254</v>
       </c>
     </row>
@@ -17783,7 +17813,7 @@
         <v>0.15</v>
       </c>
       <c r="F424">
-        <f>LOG(ABS(C424-D424)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>3.9188632372745946</v>
       </c>
     </row>
@@ -17804,7 +17834,7 @@
         <v>0.15</v>
       </c>
       <c r="F425">
-        <f>LOG(ABS(C425-D425)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>3.9188632372745946</v>
       </c>
     </row>
@@ -17825,7 +17855,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F426">
-        <f>LOG(ABS(C426-D426)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>3.8201789624151878</v>
       </c>
     </row>
@@ -17846,7 +17876,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F427">
-        <f>LOG(ABS(C427-D427)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>3.8201789624151878</v>
       </c>
     </row>
@@ -17867,7 +17897,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F428">
-        <f>LOG(ABS(C428-D428)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>3.8201789624151878</v>
       </c>
     </row>
@@ -17888,7 +17918,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F429">
-        <f>LOG(ABS(C429-D429)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>3.8201789624151878</v>
       </c>
     </row>
@@ -17909,7 +17939,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F430">
-        <f>LOG(ABS(C430-D430)+1/8,2)</f>
+        <f t="shared" si="12"/>
         <v>3.8201789624151878</v>
       </c>
     </row>
@@ -17930,7 +17960,7 @@
         <v>0.13</v>
       </c>
       <c r="F431">
-        <f>LOG(ABS(C431-D431)+1/8,2)</f>
+        <f t="shared" ref="F431:F462" si="13">LOG(ABS(C431-D431)+1/8,2)</f>
         <v>3.7142455176661224</v>
       </c>
     </row>
@@ -17951,7 +17981,7 @@
         <v>0.13</v>
       </c>
       <c r="F432">
-        <f>LOG(ABS(C432-D432)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.7142455176661224</v>
       </c>
     </row>
@@ -17972,7 +18002,7 @@
         <v>0.13</v>
       </c>
       <c r="F433">
-        <f>LOG(ABS(C433-D433)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.7142455176661224</v>
       </c>
     </row>
@@ -17993,7 +18023,7 @@
         <v>0.12</v>
       </c>
       <c r="F434">
-        <f>LOG(ABS(C434-D434)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.5999128421871283</v>
       </c>
     </row>
@@ -18014,7 +18044,7 @@
         <v>0.12</v>
       </c>
       <c r="F435">
-        <f>LOG(ABS(C435-D435)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.5999128421871283</v>
       </c>
     </row>
@@ -18035,7 +18065,7 @@
         <v>0.12</v>
       </c>
       <c r="F436">
-        <f>LOG(ABS(C436-D436)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.5999128421871283</v>
       </c>
     </row>
@@ -18056,7 +18086,7 @@
         <v>0.12</v>
       </c>
       <c r="F437">
-        <f>LOG(ABS(C437-D437)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.5999128421871283</v>
       </c>
     </row>
@@ -18077,7 +18107,7 @@
         <v>0.12</v>
       </c>
       <c r="F438">
-        <f>LOG(ABS(C438-D438)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.5999128421871283</v>
       </c>
     </row>
@@ -18098,7 +18128,7 @@
         <v>0.12</v>
       </c>
       <c r="F439">
-        <f>LOG(ABS(C439-D439)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.5999128421871283</v>
       </c>
     </row>
@@ -18119,7 +18149,7 @@
         <v>0.12</v>
       </c>
       <c r="F440">
-        <f>LOG(ABS(C440-D440)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.5999128421871283</v>
       </c>
     </row>
@@ -18140,7 +18170,7 @@
         <v>0.12</v>
       </c>
       <c r="F441">
-        <f>LOG(ABS(C441-D441)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.5999128421871283</v>
       </c>
     </row>
@@ -18161,7 +18191,7 @@
         <v>0.12</v>
       </c>
       <c r="F442">
-        <f>LOG(ABS(C442-D442)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.5999128421871283</v>
       </c>
     </row>
@@ -18182,7 +18212,7 @@
         <v>0.11</v>
       </c>
       <c r="F443">
-        <f>LOG(ABS(C443-D443)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.4757334309663976</v>
       </c>
     </row>
@@ -18203,7 +18233,7 @@
         <v>0.11</v>
       </c>
       <c r="F444">
-        <f>LOG(ABS(C444-D444)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.4757334309663976</v>
       </c>
     </row>
@@ -18224,7 +18254,7 @@
         <v>0.11</v>
       </c>
       <c r="F445">
-        <f>LOG(ABS(C445-D445)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.4757334309663976</v>
       </c>
     </row>
@@ -18245,7 +18275,7 @@
         <v>0.11</v>
       </c>
       <c r="F446">
-        <f>LOG(ABS(C446-D446)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.4757334309663976</v>
       </c>
     </row>
@@ -18266,7 +18296,7 @@
         <v>0.11</v>
       </c>
       <c r="F447">
-        <f>LOG(ABS(C447-D447)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.4757334309663976</v>
       </c>
     </row>
@@ -18287,7 +18317,7 @@
         <v>0.11</v>
       </c>
       <c r="F448">
-        <f>LOG(ABS(C448-D448)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.4757334309663976</v>
       </c>
     </row>
@@ -18308,7 +18338,7 @@
         <v>0.11</v>
       </c>
       <c r="F449">
-        <f>LOG(ABS(C449-D449)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.4757334309663976</v>
       </c>
     </row>
@@ -18329,7 +18359,7 @@
         <v>0.11</v>
       </c>
       <c r="F450">
-        <f>LOG(ABS(C450-D450)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.4757334309663976</v>
       </c>
     </row>
@@ -18350,7 +18380,7 @@
         <v>0.1</v>
       </c>
       <c r="F451">
-        <f>LOG(ABS(C451-D451)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -18371,7 +18401,7 @@
         <v>0.1</v>
       </c>
       <c r="F452">
-        <f>LOG(ABS(C452-D452)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -18392,7 +18422,7 @@
         <v>0.1</v>
       </c>
       <c r="F453">
-        <f>LOG(ABS(C453-D453)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -18413,7 +18443,7 @@
         <v>0.1</v>
       </c>
       <c r="F454">
-        <f>LOG(ABS(C454-D454)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -18434,7 +18464,7 @@
         <v>0.1</v>
       </c>
       <c r="F455">
-        <f>LOG(ABS(C455-D455)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -18455,7 +18485,7 @@
         <v>0.1</v>
       </c>
       <c r="F456">
-        <f>LOG(ABS(C456-D456)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -18476,7 +18506,7 @@
         <v>0.1</v>
       </c>
       <c r="F457">
-        <f>LOG(ABS(C457-D457)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -18497,7 +18527,7 @@
         <v>0.1</v>
       </c>
       <c r="F458">
-        <f>LOG(ABS(C458-D458)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -18518,7 +18548,7 @@
         <v>0.1</v>
       </c>
       <c r="F459">
-        <f>LOG(ABS(C459-D459)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.3398500028846252</v>
       </c>
     </row>
@@ -18539,7 +18569,7 @@
         <v>0.09</v>
       </c>
       <c r="F460">
-        <f>LOG(ABS(C460-D460)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -18560,7 +18590,7 @@
         <v>0.09</v>
       </c>
       <c r="F461">
-        <f>LOG(ABS(C461-D461)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -18581,7 +18611,7 @@
         <v>0.09</v>
       </c>
       <c r="F462">
-        <f>LOG(ABS(C462-D462)+1/8,2)</f>
+        <f t="shared" si="13"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -18602,7 +18632,7 @@
         <v>0.09</v>
       </c>
       <c r="F463">
-        <f>LOG(ABS(C463-D463)+1/8,2)</f>
+        <f t="shared" ref="F463:F494" si="14">LOG(ABS(C463-D463)+1/8,2)</f>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -18623,7 +18653,7 @@
         <v>0.09</v>
       </c>
       <c r="F464">
-        <f>LOG(ABS(C464-D464)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -18644,7 +18674,7 @@
         <v>0.09</v>
       </c>
       <c r="F465">
-        <f>LOG(ABS(C465-D465)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -18665,7 +18695,7 @@
         <v>0.09</v>
       </c>
       <c r="F466">
-        <f>LOG(ABS(C466-D466)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -18686,7 +18716,7 @@
         <v>0.09</v>
       </c>
       <c r="F467">
-        <f>LOG(ABS(C467-D467)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>3.1898245588800171</v>
       </c>
     </row>
@@ -18707,7 +18737,7 @@
         <v>0.08</v>
       </c>
       <c r="F468">
-        <f>LOG(ABS(C468-D468)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -18728,7 +18758,7 @@
         <v>0.08</v>
       </c>
       <c r="F469">
-        <f>LOG(ABS(C469-D469)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -18749,7 +18779,7 @@
         <v>0.08</v>
       </c>
       <c r="F470">
-        <f>LOG(ABS(C470-D470)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -18770,7 +18800,7 @@
         <v>0.08</v>
       </c>
       <c r="F471">
-        <f>LOG(ABS(C471-D471)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -18791,7 +18821,7 @@
         <v>0.08</v>
       </c>
       <c r="F472">
-        <f>LOG(ABS(C472-D472)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>3.0223678130284544</v>
       </c>
     </row>
@@ -18812,7 +18842,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F473">
-        <f>LOG(ABS(C473-D473)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -18833,7 +18863,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F474">
-        <f>LOG(ABS(C474-D474)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -18854,7 +18884,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F475">
-        <f>LOG(ABS(C475-D475)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -18875,7 +18905,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F476">
-        <f>LOG(ABS(C476-D476)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -18896,7 +18926,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F477">
-        <f>LOG(ABS(C477-D477)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -18917,7 +18947,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F478">
-        <f>LOG(ABS(C478-D478)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -18938,7 +18968,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F479">
-        <f>LOG(ABS(C479-D479)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -18959,7 +18989,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F480">
-        <f>LOG(ABS(C480-D480)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -18980,7 +19010,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F481">
-        <f>LOG(ABS(C481-D481)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.8328900141647417</v>
       </c>
     </row>
@@ -19001,7 +19031,7 @@
         <v>0.06</v>
       </c>
       <c r="F482">
-        <f>LOG(ABS(C482-D482)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -19022,7 +19052,7 @@
         <v>0.06</v>
       </c>
       <c r="F483">
-        <f>LOG(ABS(C483-D483)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -19043,7 +19073,7 @@
         <v>0.06</v>
       </c>
       <c r="F484">
-        <f>LOG(ABS(C484-D484)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -19064,7 +19094,7 @@
         <v>0.06</v>
       </c>
       <c r="F485">
-        <f>LOG(ABS(C485-D485)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -19085,7 +19115,7 @@
         <v>0.06</v>
       </c>
       <c r="F486">
-        <f>LOG(ABS(C486-D486)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -19106,7 +19136,7 @@
         <v>0.06</v>
       </c>
       <c r="F487">
-        <f>LOG(ABS(C487-D487)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -19127,7 +19157,7 @@
         <v>0.06</v>
       </c>
       <c r="F488">
-        <f>LOG(ABS(C488-D488)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -19148,7 +19178,7 @@
         <v>0.06</v>
       </c>
       <c r="F489">
-        <f>LOG(ABS(C489-D489)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -19169,7 +19199,7 @@
         <v>0.06</v>
       </c>
       <c r="F490">
-        <f>LOG(ABS(C490-D490)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -19190,7 +19220,7 @@
         <v>0.06</v>
       </c>
       <c r="F491">
-        <f>LOG(ABS(C491-D491)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -19211,7 +19241,7 @@
         <v>0.06</v>
       </c>
       <c r="F492">
-        <f>LOG(ABS(C492-D492)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -19232,7 +19262,7 @@
         <v>0.06</v>
       </c>
       <c r="F493">
-        <f>LOG(ABS(C493-D493)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -19253,7 +19283,7 @@
         <v>0.06</v>
       </c>
       <c r="F494">
-        <f>LOG(ABS(C494-D494)+1/8,2)</f>
+        <f t="shared" si="14"/>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -19274,7 +19304,7 @@
         <v>0.06</v>
       </c>
       <c r="F495">
-        <f>LOG(ABS(C495-D495)+1/8,2)</f>
+        <f t="shared" ref="F495:F526" si="15">LOG(ABS(C495-D495)+1/8,2)</f>
         <v>2.6147098441152083</v>
       </c>
     </row>
@@ -19295,7 +19325,7 @@
         <v>0.05</v>
       </c>
       <c r="F496">
-        <f>LOG(ABS(C496-D496)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19316,7 +19346,7 @@
         <v>0.05</v>
       </c>
       <c r="F497">
-        <f>LOG(ABS(C497-D497)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19337,7 +19367,7 @@
         <v>0.05</v>
       </c>
       <c r="F498">
-        <f>LOG(ABS(C498-D498)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19358,7 +19388,7 @@
         <v>0.05</v>
       </c>
       <c r="F499">
-        <f>LOG(ABS(C499-D499)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19379,7 +19409,7 @@
         <v>0.05</v>
       </c>
       <c r="F500">
-        <f>LOG(ABS(C500-D500)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19400,7 +19430,7 @@
         <v>0.05</v>
       </c>
       <c r="F501">
-        <f>LOG(ABS(C501-D501)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19421,7 +19451,7 @@
         <v>0.05</v>
       </c>
       <c r="F502">
-        <f>LOG(ABS(C502-D502)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19442,7 +19472,7 @@
         <v>0.05</v>
       </c>
       <c r="F503">
-        <f>LOG(ABS(C503-D503)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19463,7 +19493,7 @@
         <v>0.05</v>
       </c>
       <c r="F504">
-        <f>LOG(ABS(C504-D504)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19484,7 +19514,7 @@
         <v>0.05</v>
       </c>
       <c r="F505">
-        <f>LOG(ABS(C505-D505)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19505,7 +19535,7 @@
         <v>0.05</v>
       </c>
       <c r="F506">
-        <f>LOG(ABS(C506-D506)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19526,7 +19556,7 @@
         <v>0.05</v>
       </c>
       <c r="F507">
-        <f>LOG(ABS(C507-D507)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19547,7 +19577,7 @@
         <v>0.05</v>
       </c>
       <c r="F508">
-        <f>LOG(ABS(C508-D508)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19568,7 +19598,7 @@
         <v>0.05</v>
       </c>
       <c r="F509">
-        <f>LOG(ABS(C509-D509)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19589,7 +19619,7 @@
         <v>0.05</v>
       </c>
       <c r="F510">
-        <f>LOG(ABS(C510-D510)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19610,7 +19640,7 @@
         <v>0.05</v>
       </c>
       <c r="F511">
-        <f>LOG(ABS(C511-D511)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19631,7 +19661,7 @@
         <v>0.05</v>
       </c>
       <c r="F512">
-        <f>LOG(ABS(C512-D512)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19652,7 +19682,7 @@
         <v>0.05</v>
       </c>
       <c r="F513">
-        <f>LOG(ABS(C513-D513)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19673,7 +19703,7 @@
         <v>0.05</v>
       </c>
       <c r="F514">
-        <f>LOG(ABS(C514-D514)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19694,7 +19724,7 @@
         <v>0.05</v>
       </c>
       <c r="F515">
-        <f>LOG(ABS(C515-D515)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19715,7 +19745,7 @@
         <v>0.05</v>
       </c>
       <c r="F516">
-        <f>LOG(ABS(C516-D516)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.3575520046180838</v>
       </c>
     </row>
@@ -19736,7 +19766,7 @@
         <v>0.04</v>
       </c>
       <c r="F517">
-        <f>LOG(ABS(C517-D517)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -19757,7 +19787,7 @@
         <v>0.04</v>
       </c>
       <c r="F518">
-        <f>LOG(ABS(C518-D518)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -19778,7 +19808,7 @@
         <v>0.04</v>
       </c>
       <c r="F519">
-        <f>LOG(ABS(C519-D519)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -19799,7 +19829,7 @@
         <v>0.04</v>
       </c>
       <c r="F520">
-        <f>LOG(ABS(C520-D520)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -19820,7 +19850,7 @@
         <v>0.04</v>
       </c>
       <c r="F521">
-        <f>LOG(ABS(C521-D521)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -19841,7 +19871,7 @@
         <v>0.04</v>
       </c>
       <c r="F522">
-        <f>LOG(ABS(C522-D522)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -19862,7 +19892,7 @@
         <v>0.04</v>
       </c>
       <c r="F523">
-        <f>LOG(ABS(C523-D523)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -19883,7 +19913,7 @@
         <v>0.04</v>
       </c>
       <c r="F524">
-        <f>LOG(ABS(C524-D524)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -19904,7 +19934,7 @@
         <v>0.04</v>
       </c>
       <c r="F525">
-        <f>LOG(ABS(C525-D525)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -19925,7 +19955,7 @@
         <v>0.04</v>
       </c>
       <c r="F526">
-        <f>LOG(ABS(C526-D526)+1/8,2)</f>
+        <f t="shared" si="15"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -19946,7 +19976,7 @@
         <v>0.04</v>
       </c>
       <c r="F527">
-        <f>LOG(ABS(C527-D527)+1/8,2)</f>
+        <f t="shared" ref="F527:F558" si="16">LOG(ABS(C527-D527)+1/8,2)</f>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -19967,7 +19997,7 @@
         <v>0.04</v>
       </c>
       <c r="F528">
-        <f>LOG(ABS(C528-D528)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -19988,7 +20018,7 @@
         <v>0.04</v>
       </c>
       <c r="F529">
-        <f>LOG(ABS(C529-D529)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -20009,7 +20039,7 @@
         <v>0.04</v>
       </c>
       <c r="F530">
-        <f>LOG(ABS(C530-D530)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -20030,7 +20060,7 @@
         <v>0.04</v>
       </c>
       <c r="F531">
-        <f>LOG(ABS(C531-D531)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -20051,7 +20081,7 @@
         <v>0.04</v>
       </c>
       <c r="F532">
-        <f>LOG(ABS(C532-D532)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -20072,7 +20102,7 @@
         <v>0.04</v>
       </c>
       <c r="F533">
-        <f>LOG(ABS(C533-D533)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>2.0443941193584534</v>
       </c>
     </row>
@@ -20093,7 +20123,7 @@
         <v>0.03</v>
       </c>
       <c r="F534">
-        <f>LOG(ABS(C534-D534)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20114,7 +20144,7 @@
         <v>0.03</v>
       </c>
       <c r="F535">
-        <f>LOG(ABS(C535-D535)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20135,7 +20165,7 @@
         <v>0.03</v>
       </c>
       <c r="F536">
-        <f>LOG(ABS(C536-D536)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20156,7 +20186,7 @@
         <v>0.03</v>
       </c>
       <c r="F537">
-        <f>LOG(ABS(C537-D537)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20177,7 +20207,7 @@
         <v>0.03</v>
       </c>
       <c r="F538">
-        <f>LOG(ABS(C538-D538)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20198,7 +20228,7 @@
         <v>0.03</v>
       </c>
       <c r="F539">
-        <f>LOG(ABS(C539-D539)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20219,7 +20249,7 @@
         <v>0.03</v>
       </c>
       <c r="F540">
-        <f>LOG(ABS(C540-D540)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20240,7 +20270,7 @@
         <v>0.03</v>
       </c>
       <c r="F541">
-        <f>LOG(ABS(C541-D541)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20261,7 +20291,7 @@
         <v>0.03</v>
       </c>
       <c r="F542">
-        <f>LOG(ABS(C542-D542)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20282,7 +20312,7 @@
         <v>0.03</v>
       </c>
       <c r="F543">
-        <f>LOG(ABS(C543-D543)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20303,7 +20333,7 @@
         <v>0.03</v>
       </c>
       <c r="F544">
-        <f>LOG(ABS(C544-D544)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20324,7 +20354,7 @@
         <v>0.03</v>
       </c>
       <c r="F545">
-        <f>LOG(ABS(C545-D545)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20345,7 +20375,7 @@
         <v>0.03</v>
       </c>
       <c r="F546">
-        <f>LOG(ABS(C546-D546)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20366,7 +20396,7 @@
         <v>0.03</v>
       </c>
       <c r="F547">
-        <f>LOG(ABS(C547-D547)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20387,7 +20417,7 @@
         <v>0.03</v>
       </c>
       <c r="F548">
-        <f>LOG(ABS(C548-D548)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20408,7 +20438,7 @@
         <v>0.03</v>
       </c>
       <c r="F549">
-        <f>LOG(ABS(C549-D549)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20429,7 +20459,7 @@
         <v>0.03</v>
       </c>
       <c r="F550">
-        <f>LOG(ABS(C550-D550)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20450,7 +20480,7 @@
         <v>0.03</v>
       </c>
       <c r="F551">
-        <f>LOG(ABS(C551-D551)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20471,7 +20501,7 @@
         <v>0.03</v>
       </c>
       <c r="F552">
-        <f>LOG(ABS(C552-D552)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20492,7 +20522,7 @@
         <v>0.03</v>
       </c>
       <c r="F553">
-        <f>LOG(ABS(C553-D553)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20513,7 +20543,7 @@
         <v>0.03</v>
       </c>
       <c r="F554">
-        <f>LOG(ABS(C554-D554)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20534,7 +20564,7 @@
         <v>0.03</v>
       </c>
       <c r="F555">
-        <f>LOG(ABS(C555-D555)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20555,7 +20585,7 @@
         <v>0.03</v>
       </c>
       <c r="F556">
-        <f>LOG(ABS(C556-D556)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20576,7 +20606,7 @@
         <v>0.03</v>
       </c>
       <c r="F557">
-        <f>LOG(ABS(C557-D557)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20597,7 +20627,7 @@
         <v>0.03</v>
       </c>
       <c r="F558">
-        <f>LOG(ABS(C558-D558)+1/8,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20618,7 +20648,7 @@
         <v>0.03</v>
       </c>
       <c r="F559">
-        <f>LOG(ABS(C559-D559)+1/8,2)</f>
+        <f t="shared" ref="F559:F588" si="17">LOG(ABS(C559-D559)+1/8,2)</f>
         <v>1.6438561897747248</v>
       </c>
     </row>
@@ -20639,7 +20669,7 @@
         <v>0.02</v>
       </c>
       <c r="F560">
-        <f>LOG(ABS(C560-D560)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -20660,7 +20690,7 @@
         <v>0.02</v>
       </c>
       <c r="F561">
-        <f>LOG(ABS(C561-D561)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -20681,7 +20711,7 @@
         <v>0.02</v>
       </c>
       <c r="F562">
-        <f>LOG(ABS(C562-D562)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -20702,7 +20732,7 @@
         <v>0.02</v>
       </c>
       <c r="F563">
-        <f>LOG(ABS(C563-D563)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -20723,7 +20753,7 @@
         <v>0.02</v>
       </c>
       <c r="F564">
-        <f>LOG(ABS(C564-D564)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -20744,7 +20774,7 @@
         <v>0.02</v>
       </c>
       <c r="F565">
-        <f>LOG(ABS(C565-D565)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -20765,7 +20795,7 @@
         <v>0.02</v>
       </c>
       <c r="F566">
-        <f>LOG(ABS(C566-D566)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -20786,7 +20816,7 @@
         <v>0.02</v>
       </c>
       <c r="F567">
-        <f>LOG(ABS(C567-D567)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -20807,7 +20837,7 @@
         <v>0.02</v>
       </c>
       <c r="F568">
-        <f>LOG(ABS(C568-D568)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -20828,7 +20858,7 @@
         <v>0.02</v>
       </c>
       <c r="F569">
-        <f>LOG(ABS(C569-D569)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -20849,7 +20879,7 @@
         <v>0.02</v>
       </c>
       <c r="F570">
-        <f>LOG(ABS(C570-D570)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -20870,7 +20900,7 @@
         <v>0.02</v>
       </c>
       <c r="F571">
-        <f>LOG(ABS(C571-D571)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -20891,7 +20921,7 @@
         <v>0.02</v>
       </c>
       <c r="F572">
-        <f>LOG(ABS(C572-D572)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>1.0874628412503395</v>
       </c>
     </row>
@@ -20912,7 +20942,7 @@
         <v>0.01</v>
       </c>
       <c r="F573">
-        <f>LOG(ABS(C573-D573)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -20933,7 +20963,7 @@
         <v>0.01</v>
       </c>
       <c r="F574">
-        <f>LOG(ABS(C574-D574)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -20954,7 +20984,7 @@
         <v>0.01</v>
       </c>
       <c r="F575">
-        <f>LOG(ABS(C575-D575)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -20975,7 +21005,7 @@
         <v>0.01</v>
       </c>
       <c r="F576">
-        <f>LOG(ABS(C576-D576)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -20996,7 +21026,7 @@
         <v>0.01</v>
       </c>
       <c r="F577">
-        <f>LOG(ABS(C577-D577)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -21017,7 +21047,7 @@
         <v>0.01</v>
       </c>
       <c r="F578">
-        <f>LOG(ABS(C578-D578)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -21038,7 +21068,7 @@
         <v>0.01</v>
       </c>
       <c r="F579">
-        <f>LOG(ABS(C579-D579)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -21059,7 +21089,7 @@
         <v>0.01</v>
       </c>
       <c r="F580">
-        <f>LOG(ABS(C580-D580)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -21080,7 +21110,7 @@
         <v>0.01</v>
       </c>
       <c r="F581">
-        <f>LOG(ABS(C581-D581)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -21101,7 +21131,7 @@
         <v>0.01</v>
       </c>
       <c r="F582">
-        <f>LOG(ABS(C582-D582)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -21122,7 +21152,7 @@
         <v>0.01</v>
       </c>
       <c r="F583">
-        <f>LOG(ABS(C583-D583)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -21143,7 +21173,7 @@
         <v>0.01</v>
       </c>
       <c r="F584">
-        <f>LOG(ABS(C584-D584)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -21164,7 +21194,7 @@
         <v>0.01</v>
       </c>
       <c r="F585">
-        <f>LOG(ABS(C585-D585)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -21185,7 +21215,7 @@
         <v>0.01</v>
       </c>
       <c r="F586">
-        <f>LOG(ABS(C586-D586)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -21206,7 +21236,7 @@
         <v>0.01</v>
       </c>
       <c r="F587">
-        <f>LOG(ABS(C587-D587)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
@@ -21227,7 +21257,7 @@
         <v>0.01</v>
       </c>
       <c r="F588">
-        <f>LOG(ABS(C588-D588)+1/8,2)</f>
+        <f t="shared" si="17"/>
         <v>0.16992500144231237</v>
       </c>
     </row>
